--- a/data-raw/send_tables.xlsx
+++ b/data-raw/send_tables.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\DATA MANAGEMENT\@Data Science\BioCelerate\sendigR\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C30F2A-9544-4D6A-8084-11788D5D147A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B57277-18C9-4FA8-A0F2-F11E39C2C431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="26445" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32310" yWindow="3510" windowWidth="23925" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="send_tables" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">send_tables!$A$1:$C$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">send_tables!$A$1:$C$52</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>SUPPQUAL</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1314,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1333,7 +1336,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1344,7 +1347,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1355,7 +1358,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1366,7 +1369,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1377,7 +1380,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1388,7 +1391,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1399,7 +1402,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1410,7 +1413,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1432,7 +1435,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1454,7 +1457,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1465,7 +1468,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1476,7 +1479,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1487,7 +1490,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1498,7 +1501,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1509,7 +1512,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1520,7 +1523,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1531,7 +1534,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1542,7 +1545,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1553,7 +1556,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1564,29 +1567,29 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1595,19 +1598,30 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C51" xr:uid="{6F67EA09-D41F-4C21-B6B8-D58F4E6A523A}">
+  <autoFilter ref="A1:C52" xr:uid="{6F67EA09-D41F-4C21-B6B8-D58F4E6A523A}">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
